--- a/発生状況.xlsx
+++ b/発生状況.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="22860" windowHeight="15460"/>
+    <workbookView xWindow="15340" yWindow="0" windowWidth="22860" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="32">
   <si>
     <t>トビイロウンカ</t>
     <phoneticPr fontId="1"/>
@@ -224,6 +224,34 @@
   </si>
   <si>
     <t>H28-病防64</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通期水稲</t>
+    <rPh sb="0" eb="3">
+      <t>フツウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トビイロウンカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県内</t>
+    <rPh sb="0" eb="4">
+      <t>クマモトケンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H28-病防72</t>
     <rPh sb="4" eb="6">
       <t>ビョウボウ</t>
     </rPh>
@@ -237,7 +265,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="[$-411]gee\.mm\.dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-411]gee\.mm\.dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -291,8 +319,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -357,11 +397,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -370,6 +410,8 @@
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -379,6 +421,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.875" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -879,10 +923,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>41475</v>
+        <v>39326</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -891,24 +935,27 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>41547</v>
+        <v>41157</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>41487</v>
+        <v>40057</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -917,24 +964,27 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>36.1</v>
       </c>
       <c r="F9" s="3">
-        <v>0.17</v>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>41547</v>
+        <v>41157</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>41506</v>
+        <v>41110</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -943,24 +993,24 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>41547</v>
+        <v>41157</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>41518</v>
+        <v>41122</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -969,50 +1019,50 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>19.5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="H11" s="4">
-        <v>41547</v>
+        <v>41157</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>41518</v>
+        <v>41141</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>18.899999999999999</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>0.97499999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="H12" s="4">
-        <v>41888</v>
+        <v>41157</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>41537</v>
+        <v>41153</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1021,68 +1071,68 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>165.7</v>
+        <v>101.3</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>41547</v>
+        <v>41157</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>41840</v>
+        <v>41445</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>8.4500000000000006E-2</v>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H14" s="4">
-        <v>41890</v>
+        <v>41484</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>41852</v>
+        <v>41456</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.309</v>
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="4">
-        <v>41892</v>
+        <v>41484</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1090,25 +1140,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>41871</v>
+        <v>41475</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.38300000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>41894</v>
+        <v>41547</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1116,210 +1166,207 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>41883</v>
+        <v>41487</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>10.9</v>
+        <v>4.3</v>
       </c>
       <c r="F17" s="3">
-        <v>0.70299999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="H17" s="4">
-        <v>41896</v>
+        <v>41547</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>42205</v>
+        <v>41506</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H18" s="4">
-        <v>42254</v>
+        <v>41547</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>42217</v>
+        <v>41518</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="F19" s="3">
-        <v>0.01</v>
+        <v>0.98</v>
       </c>
       <c r="H19" s="4">
-        <v>42254</v>
+        <v>41547</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>42236</v>
+        <v>41537</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>165.7</v>
       </c>
       <c r="F20" s="3">
-        <v>0.10299999999999999</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>42254</v>
+        <v>41547</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2">
-        <v>42249</v>
+        <v>41518</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>0.2</v>
+        <v>199.1</v>
       </c>
       <c r="F21" s="3">
-        <v>0.159</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>42254</v>
+        <v>41887</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>42571</v>
+        <v>41518</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H22" s="4">
-        <v>42586</v>
+        <v>41888</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>42584</v>
+        <v>41840</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.32100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="4">
-        <v>42586</v>
+        <v>41889</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>39326</v>
+        <v>41840</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="H24" s="4">
-        <v>41157</v>
+        <v>41890</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1327,54 +1374,51 @@
         <v>13</v>
       </c>
       <c r="B25" s="2">
-        <v>40057</v>
+        <v>41852</v>
       </c>
       <c r="C25" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>36.1</v>
+        <v>9.6</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="H25" s="4">
-        <v>41157</v>
+        <v>41891</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>41110</v>
+        <v>41852</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="H26" s="4">
-        <v>41157</v>
+        <v>41892</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1382,51 +1426,51 @@
         <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>41122</v>
+        <v>41871</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F27" s="3">
-        <v>0.94</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="H27" s="4">
-        <v>41157</v>
+        <v>41893</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2">
-        <v>41141</v>
+        <v>41871</v>
       </c>
       <c r="C28" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>0.65</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="H28" s="4">
-        <v>41157</v>
+        <v>41894</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1434,207 +1478,207 @@
         <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>41153</v>
+        <v>41883</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>101.3</v>
+        <v>172.4</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H29" s="4">
-        <v>41157</v>
+        <v>41895</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2">
-        <v>41445</v>
+        <v>41883</v>
       </c>
       <c r="C30" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
+        <v>10.9</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.70299999999999996</v>
       </c>
       <c r="H30" s="4">
-        <v>41484</v>
+        <v>41896</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
-        <v>41456</v>
+        <v>42205</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>1.2</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>41484</v>
+        <v>42254</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
-        <v>41518</v>
+        <v>42217</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E32">
-        <v>199.1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H32" s="4">
-        <v>41887</v>
+        <v>42254</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
-        <v>41840</v>
+        <v>42236</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" s="3">
-        <v>0.1</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="H33" s="4">
-        <v>41889</v>
+        <v>42254</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
-        <v>41852</v>
+        <v>42249</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>9.6</v>
+        <v>0.2</v>
       </c>
       <c r="F34" s="3">
-        <v>0.44800000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="H34" s="4">
-        <v>41891</v>
+        <v>42254</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
-        <v>41871</v>
+        <v>42571</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.89900000000000002</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>41893</v>
+        <v>42586</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
-        <v>41883</v>
+        <v>42584</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>172.4</v>
+        <v>0.2</v>
       </c>
       <c r="F36" s="3">
-        <v>0.9</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="H36" s="4">
-        <v>41895</v>
+        <v>42586</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1689,7 +1733,64 @@
         <v>27</v>
       </c>
     </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42602</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="4">
+        <v>42613</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>5.8</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H40" s="4">
+        <v>42613</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I38">
+      <sortCondition ref="H1:H38"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:I38">
     <sortCondition descending="1" ref="A2:A38"/>
     <sortCondition ref="B2:B38"/>

--- a/発生状況.xlsx
+++ b/発生状況.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="0" windowWidth="22860" windowHeight="15460"/>
+    <workbookView xWindow="16340" yWindow="60" windowWidth="22860" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="42">
   <si>
     <t>トビイロウンカ</t>
     <phoneticPr fontId="1"/>
@@ -254,6 +254,55 @@
     <t>H28-病防72</t>
     <rPh sb="4" eb="6">
       <t>ビョウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H23-病防49</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h22-病防34</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通期水稲</t>
+  </si>
+  <si>
+    <t>トビイロウンカ</t>
+  </si>
+  <si>
+    <t>熊本県内</t>
+  </si>
+  <si>
+    <t>h22-病防46</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h22-病防64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h22-病防69</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トビイロウンカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県内</t>
+    <rPh sb="0" eb="4">
+      <t>クマモトケンナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -262,12 +311,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="[$-411]gee\.mm\.dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +349,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,8 +439,140 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,11 +585,20 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="65">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -412,6 +609,28 @@
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -423,6 +642,28 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.875" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -733,7 +974,7 @@
     <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="3"/>
-    <col min="8" max="8" width="8.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -758,7 +999,7 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I1" t="s">
@@ -767,268 +1008,262 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
-        <v>39326</v>
+        <v>42614</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>78.3</v>
+        <v>5.8</v>
       </c>
       <c r="F2" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="H2" s="4">
-        <v>41157</v>
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42613</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>40057</v>
+        <v>42602</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>30.7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="H3" s="4">
-        <v>41157</v>
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42613</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>41110</v>
+        <v>42584</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="4">
-        <v>41157</v>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>42586</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>41122</v>
+        <v>42584</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="H5" s="4">
-        <v>41157</v>
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>42586</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>41141</v>
+        <v>42571</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="H6" s="4">
-        <v>41157</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>42586</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>41153</v>
+        <v>42571</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="H7" s="4">
-        <v>41157</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>42586</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>39326</v>
+        <v>42249</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>41.2</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>41157</v>
+        <v>0.159</v>
+      </c>
+      <c r="H8" s="2">
+        <v>42254</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>40057</v>
+        <v>42236</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>36.1</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>41157</v>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>42254</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>41110</v>
+        <v>42217</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>41157</v>
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>42254</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>41122</v>
+        <v>42205</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="H11" s="4">
-        <v>41157</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>42254</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1036,51 +1271,51 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>41141</v>
+        <v>41883</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>172.4</v>
       </c>
       <c r="F12" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="H12" s="4">
-        <v>41157</v>
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>41895</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>41153</v>
+        <v>41883</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>101.3</v>
+        <v>10.9</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>41157</v>
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41896</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1088,77 +1323,77 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>41445</v>
+        <v>41871</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4">
-        <v>41484</v>
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41893</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>41456</v>
+        <v>41871</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>1.2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4">
-        <v>41484</v>
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41894</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>41475</v>
+        <v>41852</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>41547</v>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41891</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1166,51 +1401,51 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>41487</v>
+        <v>41852</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="H17" s="4">
-        <v>41547</v>
+        <v>0.309</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41892</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>41506</v>
+        <v>41840</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H18" s="4">
-        <v>41547</v>
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>41889</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1218,25 +1453,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>41518</v>
+        <v>41840</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="H19" s="4">
-        <v>41547</v>
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41890</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1258,7 +1493,7 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>41547</v>
       </c>
       <c r="I20" t="s">
@@ -1267,51 +1502,51 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>41518</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>199.1</v>
+        <v>19.5</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>41887</v>
+        <v>0.98</v>
+      </c>
+      <c r="H21" s="2">
+        <v>41547</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2">
         <v>41518</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>18.899999999999999</v>
+        <v>199.1</v>
       </c>
       <c r="F22" s="3">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="H22" s="4">
-        <v>41888</v>
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>41887</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
@@ -1319,25 +1554,25 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>41840</v>
+        <v>41518</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>41889</v>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H23" s="2">
+        <v>41888</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -1348,51 +1583,51 @@
         <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>41840</v>
+        <v>41506</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F24" s="3">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="H24" s="4">
-        <v>41890</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H24" s="2">
+        <v>41547</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>41852</v>
+        <v>41487</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="F25" s="3">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="H25" s="4">
-        <v>41891</v>
+        <v>0.17</v>
+      </c>
+      <c r="H25" s="2">
+        <v>41547</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1400,25 +1635,25 @@
         <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>41852</v>
+        <v>41475</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0.309</v>
-      </c>
-      <c r="H26" s="4">
-        <v>41892</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>41547</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1426,259 +1661,259 @@
         <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>41871</v>
+        <v>41456</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>3.2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="H27" s="4">
-        <v>41893</v>
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2">
+        <v>41484</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2">
-        <v>41871</v>
+        <v>41445</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="H28" s="4">
-        <v>41894</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2">
+        <v>41484</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>41883</v>
+        <v>41153</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>172.4</v>
+        <v>4.7</v>
       </c>
       <c r="F29" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H29" s="4">
-        <v>41895</v>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41157</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>41883</v>
+        <v>41153</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>10.9</v>
+        <v>101.3</v>
       </c>
       <c r="F30" s="3">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="H30" s="4">
-        <v>41896</v>
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>41157</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2">
-        <v>42205</v>
+        <v>41141</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>42254</v>
+        <v>0.32</v>
+      </c>
+      <c r="H31" s="2">
+        <v>41157</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2">
-        <v>42217</v>
+        <v>41141</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H32" s="4">
-        <v>42254</v>
+        <v>0.65</v>
+      </c>
+      <c r="H32" s="2">
+        <v>41157</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2">
-        <v>42236</v>
+        <v>41122</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H33" s="4">
-        <v>42254</v>
+        <v>0.37</v>
+      </c>
+      <c r="H33" s="2">
+        <v>41157</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2">
-        <v>42249</v>
+        <v>41122</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3">
-        <v>0.159</v>
-      </c>
-      <c r="H34" s="4">
-        <v>42254</v>
+        <v>0.94</v>
+      </c>
+      <c r="H34" s="2">
+        <v>41157</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2">
-        <v>42571</v>
+        <v>41110</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>42586</v>
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="2">
+        <v>41157</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>42584</v>
+        <v>41110</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="H36" s="4">
-        <v>42586</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>41157</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1686,10 +1921,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="2">
-        <v>42571</v>
+        <v>40744</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
@@ -1700,95 +1935,364 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="4">
-        <v>42586</v>
+      <c r="H37" s="2">
+        <v>40753</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2">
-        <v>42584</v>
+        <v>40744</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F38" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H38" s="4">
-        <v>42586</v>
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>40753</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
-        <v>42602</v>
+        <v>40695</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="4">
-        <v>42613</v>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>40753</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2">
-        <v>42614</v>
+        <v>40695</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="H40" s="4">
-        <v>42613</v>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40753</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40422</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40427</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="5">
+        <v>40410</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.501</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5">
+        <v>40422</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="5">
+        <v>40391</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5">
+        <v>40389</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5">
+        <v>40379</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5">
+        <v>40389</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2">
+        <v>40330</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>40358</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>40330</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>40358</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2">
+        <v>40057</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>30.7</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="H47" s="2">
+        <v>41157</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2">
+        <v>40057</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>36.1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>41157</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2">
+        <v>39326</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>78.3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="H49" s="2">
+        <v>41157</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <v>39326</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>41.2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>41157</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
-    <sortState ref="A2:I38">
-      <sortCondition ref="H1:H38"/>
+    <sortState ref="A2:I50">
+      <sortCondition descending="1" ref="B1:B50"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:I38">
